--- a/pj_creator_2/res/xlsx/traits.xlsx
+++ b/pj_creator_2/res/xlsx/traits.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15360" windowHeight="4740"/>
+    <workbookView windowWidth="15360" windowHeight="4680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="108">
   <si>
     <t>keys</t>
   </si>
@@ -59,12 +59,6 @@
     <t>negativo</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>positivo</t>
-  </si>
-  <si>
     <t>intense</t>
   </si>
   <si>
@@ -143,12 +137,6 @@
     <t>fragil</t>
   </si>
   <si>
-    <t>resistant</t>
-  </si>
-  <si>
-    <t>resistente</t>
-  </si>
-  <si>
     <t>loyal</t>
   </si>
   <si>
@@ -294,12 +282,6 @@
   </si>
   <si>
     <t>rencoroso</t>
-  </si>
-  <si>
-    <t>indulgent</t>
-  </si>
-  <si>
-    <t>indulgente</t>
   </si>
   <si>
     <t>misfit</t>
@@ -1318,10 +1300,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C58" sqref="A58:C58"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A43" sqref="$A43:$XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.8888888888889" defaultRowHeight="15.6" outlineLevelCol="3"/>
@@ -1659,26 +1641,26 @@
         <v>60</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>64</v>
@@ -1813,37 +1795,37 @@
         <v>87</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>93</v>
@@ -1905,58 +1887,25 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
